--- a/samples/case01_basic/rules/rules.xlsx
+++ b/samples/case01_basic/rules/rules.xlsx
@@ -424,12 +424,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,8 +579,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -592,19 +592,6 @@
       <c r="B1" t="inlineStr">
         <is>
           <t>Member</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SRC_NETS</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SRC_NET_10
-SRC_HOST_20_10</t>
         </is>
       </c>
     </row>
@@ -627,8 +614,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -651,8 +638,9 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tcp_8001-8004
-udp_65000</t>
+          <t>DNS
+SMTP
+tcp_8001-8004</t>
         </is>
       </c>
     </row>
@@ -667,7 +655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,17 +663,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="18" customWidth="1" min="8" max="8"/>
-    <col width="18" customWidth="1" min="9" max="9"/>
-    <col width="18" customWidth="1" min="10" max="10"/>
-    <col width="18" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -842,7 +830,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SRC_NETS</t>
+          <t>SRC_NET_10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -870,7 +858,50 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>allow web http</t>
+          <t>allow web http from net</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SRC_HOST_20_10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>WEB_NET</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>HTTP</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>accept</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>P-4</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>allow web http from host</t>
         </is>
       </c>
     </row>
